--- a/QMMM/UFF.xlsx
+++ b/QMMM/UFF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\CP2k-v.9.1-examples\QMMM\2016_Multiscale_modelling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\CP2k-v.9.1-examples\QMMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D82AD49-A50C-43DB-9929-AE8283D0DFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B36310-C452-4BCC-AF67-072E53D8D529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="555" windowWidth="23445" windowHeight="14280" xr2:uid="{121A735D-7983-4E89-ABC1-4718BA4F7050}"/>
+    <workbookView xWindow="1560" yWindow="1275" windowWidth="23535" windowHeight="14205" xr2:uid="{121A735D-7983-4E89-ABC1-4718BA4F7050}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,10 +465,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Pt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>xi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,6 +521,10 @@
   </si>
   <si>
     <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Si</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3657E5A7-BAAE-4391-9926-0451F474CFBF}">
   <dimension ref="A1:R129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -962,7 +962,7 @@
         <v>140</v>
       </c>
       <c r="P1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -1003,17 +1003,17 @@
         <v>141</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R2" t="str">
         <f>$N$2</f>
-        <v>Pt</v>
+        <v>Si</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
@@ -1051,17 +1051,17 @@
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N3" s="2">
-        <v>0.08</v>
+        <v>4.2949999999999999</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q3">
         <f>SQRT(E2*$N$3)</f>
-        <v>5.9329587896765304E-2</v>
+        <v>0.43471829959181613</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -1099,17 +1099,17 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N4" s="2">
-        <v>2.754</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <f>(D2+$N$4)/2/(2^(1/6))</f>
-        <v>2.5123343851557571</v>
+        <v>1.4646374926227179</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -1147,7 +1147,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -1185,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
@@ -1261,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
@@ -1299,14 +1302,14 @@
         <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q9" t="s">
         <v>139</v>
       </c>
       <c r="R9" t="str">
         <f>$N$2</f>
-        <v>Pt</v>
+        <v>Si</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
@@ -1344,11 +1347,11 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <f>SQRT(E9*$N$3)</f>
-        <v>9.1651513899116799E-2</v>
+        <v>0.67154672212735878</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -1386,11 +1389,11 @@
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <f>(D9+$N$4)/2/(2^(1/6))</f>
-        <v>2.9421930166584707</v>
+        <v>1.8944961241254314</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -1428,7 +1431,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -1466,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -1539,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -1577,14 +1583,14 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R16" t="str">
         <f>$N$2</f>
-        <v>Pt</v>
+        <v>Si</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
@@ -1622,11 +1628,11 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <f>SQRT(E13*$N$3)</f>
-        <v>7.4296702484026839E-2</v>
+        <v>0.54438497407625064</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.4">
@@ -1664,11 +1670,11 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <f>(D13+$N$4)/2/(2^(1/6))</f>
-        <v>2.857112189076068</v>
+        <v>1.8094152965430292</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
@@ -1706,7 +1712,10 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
@@ -1744,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
@@ -1817,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.4">
@@ -1855,14 +1864,14 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R23" t="str">
         <f>$N$2</f>
-        <v>Pt</v>
+        <v>Si</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
@@ -1900,11 +1909,11 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <f>SQRT(E17*$N$3)</f>
-        <v>6.9282032302755092E-2</v>
+        <v>0.50764160585988216</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -1942,11 +1951,11 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <f>(D17+$N$4)/2/(2^(1/6))</f>
-        <v>2.7858402916248406</v>
+        <v>1.738143399091802</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -1984,7 +1993,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -2022,7 +2034,7 @@
         <v>4</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -2095,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
@@ -2133,14 +2145,14 @@
         <v>4</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R30" t="str">
         <f>$N$2</f>
-        <v>Pt</v>
+        <v>Si</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
@@ -2178,11 +2190,11 @@
         <v>2</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <f>SQRT(E22*$N$3)</f>
-        <v>6.3245553203367583E-2</v>
+        <v>0.46341126442934033</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -2220,11 +2232,11 @@
         <v>4</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <f>(D22+$N$4)/2/(2^(1/6))</f>
-        <v>2.7252591787912981</v>
+        <v>1.6775622862582589</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
@@ -2262,7 +2274,10 @@
         <v>4</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="Q33">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
@@ -2300,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
@@ -2373,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -2411,14 +2426,14 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R37" t="str">
         <f>$N$2</f>
-        <v>Pt</v>
+        <v>Si</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.4">
@@ -2456,11 +2471,11 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <f>SQRT(E28*$N$3)</f>
-        <v>0.15620499351813311</v>
+        <v>1.1445413928731454</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
@@ -2498,11 +2513,11 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <f>(D28+$N$4)/2/(2^(1/6))</f>
-        <v>3.0740460269432406</v>
+        <v>2.0263491344102018</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
@@ -2540,7 +2555,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="Q40">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.4">
@@ -2578,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.4">
@@ -2651,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.4">
@@ -2689,14 +2707,14 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R44" t="str">
         <f>$N$2</f>
-        <v>Pt</v>
+        <v>Si</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.4">
@@ -2734,11 +2752,11 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q45">
         <f>SQRT(E35*$N$3)</f>
-        <v>0.14805404418657397</v>
+        <v>1.0848179570785137</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.4">
@@ -2776,11 +2794,11 @@
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q46">
         <f>(D35+$N$4)/2/(2^(1/6))</f>
-        <v>3.0241556987273817</v>
+        <v>1.9764588061943429</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.4">
@@ -2818,7 +2836,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="Q47">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.4">
@@ -2856,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">

--- a/QMMM/UFF.xlsx
+++ b/QMMM/UFF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\CP2k-v.9.1-examples\QMMM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B36310-C452-4BCC-AF67-072E53D8D529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A18896-63BF-4933-A55E-08D271FB71BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1275" windowWidth="23535" windowHeight="14205" xr2:uid="{121A735D-7983-4E89-ABC1-4718BA4F7050}"/>
+    <workbookView xWindow="12120" yWindow="180" windowWidth="16110" windowHeight="9855" xr2:uid="{121A735D-7983-4E89-ABC1-4718BA4F7050}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="158">
   <si>
     <t>atomic_symbol</t>
     <phoneticPr fontId="1"/>
@@ -465,14 +465,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>xi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>di</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>xi = 2^(1/6)*sigma</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -524,7 +516,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Si</t>
+    <t># [A]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># [kcal/mol], </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[eV]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -532,6 +532,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,6 +603,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,15 +922,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3657E5A7-BAAE-4391-9926-0451F474CFBF}">
-  <dimension ref="A1:R129"/>
+  <dimension ref="A1:T129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -962,10 +968,10 @@
         <v>140</v>
       </c>
       <c r="P1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1003,20 +1009,20 @@
         <v>141</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R2" t="str">
         <f>$N$2</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+        <v>H</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1051,20 +1057,30 @@
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N3" s="2">
-        <v>4.2949999999999999</v>
+        <v>2.8860000000000001</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q3">
-        <f>SQRT(E2*$N$3)</f>
-        <v>0.43471829959181613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>SQRT(E2*$N$4)</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>156</v>
+      </c>
+      <c r="S3" s="3">
+        <f>0.043361254529175*Q3</f>
+        <v>1.9078951992836997E-3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1099,20 +1115,23 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="N4" s="2">
-        <v>0.40200000000000002</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q4">
-        <f>(D2+$N$4)/2/(2^(1/6))</f>
-        <v>1.4646374926227179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>(D2+$N$3)/2/(2^(1/6))</f>
+        <v>2.5711337005530193</v>
+      </c>
+      <c r="R4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1147,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1188,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1264,10 +1283,10 @@
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1302,17 +1321,17 @@
         <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q9" t="s">
         <v>139</v>
       </c>
       <c r="R9" t="str">
         <f>$N$2</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+        <v>H</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1347,14 +1366,24 @@
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q10">
-        <f>SQRT(E9*$N$3)</f>
-        <v>0.67154672212735878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>SQRT(E9*$N$4)</f>
+        <v>6.7970581871865707E-2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>156</v>
+      </c>
+      <c r="S10" s="3">
+        <f>0.043361254529175*Q10</f>
+        <v>2.9472897010420968E-3</v>
+      </c>
+      <c r="T10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1389,14 +1418,17 @@
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q11">
-        <f>(D9+$N$4)/2/(2^(1/6))</f>
-        <v>1.8944961241254314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>(D9+$N$3)/2/(2^(1/6))</f>
+        <v>3.0009923320557328</v>
+      </c>
+      <c r="R11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1431,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1472,10 +1504,10 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1510,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1545,10 +1577,10 @@
         <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1583,17 +1615,17 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R16" t="str">
         <f>$N$2</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+        <v>H</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1628,14 +1660,24 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q17">
-        <f>SQRT(E13*$N$3)</f>
-        <v>0.54438497407625064</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>SQRT(E13*$N$4)</f>
+        <v>5.5099909255823643E-2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>156</v>
+      </c>
+      <c r="S17" s="3">
+        <f>0.043361254529175*Q17</f>
+        <v>2.3892011897762144E-3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1670,14 +1712,17 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q18">
-        <f>(D13+$N$4)/2/(2^(1/6))</f>
-        <v>1.8094152965430292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>(D13+$N$3)/2/(2^(1/6))</f>
+        <v>2.9159115044733306</v>
+      </c>
+      <c r="R18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1712,13 +1757,13 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1753,10 +1798,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1791,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1826,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1864,17 +1909,17 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R23" t="str">
         <f>$N$2</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+        <v>H</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1909,14 +1954,24 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q24">
-        <f>SQRT(E17*$N$3)</f>
-        <v>0.50764160585988216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+      <c r="Q24" s="3">
+        <f>SQRT(E17*$N$4)</f>
+        <v>5.1380930314660511E-2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>156</v>
+      </c>
+      <c r="S24" s="3">
+        <f>0.043361254529175*Q24</f>
+        <v>2.227941597319798E-3</v>
+      </c>
+      <c r="T24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1951,14 +2006,17 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q25">
-        <f>(D17+$N$4)/2/(2^(1/6))</f>
-        <v>1.738143399091802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>(D17+$N$3)/2/(2^(1/6))</f>
+        <v>2.8446396070221032</v>
+      </c>
+      <c r="R25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1993,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2034,10 +2092,10 @@
         <v>4</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2072,7 +2130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2107,10 +2165,10 @@
         <v>4</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2145,17 +2203,17 @@
         <v>4</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R30" t="str">
         <f>$N$2</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+        <v>H</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2190,14 +2248,24 @@
         <v>2</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q31">
-        <f>SQRT(E22*$N$3)</f>
-        <v>0.46341126442934033</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+      <c r="Q31" s="3">
+        <f>SQRT(E22*$N$4)</f>
+        <v>4.6904157598234297E-2</v>
+      </c>
+      <c r="R31" t="s">
+        <v>156</v>
+      </c>
+      <c r="S31" s="3">
+        <f>0.043361254529175*Q31</f>
+        <v>2.033823116093575E-3</v>
+      </c>
+      <c r="T31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2232,14 +2300,17 @@
         <v>4</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q32">
-        <f>(D22+$N$4)/2/(2^(1/6))</f>
-        <v>1.6775622862582589</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+      <c r="Q32" s="3">
+        <f>(D22+$N$3)/2/(2^(1/6))</f>
+        <v>2.7840584941885602</v>
+      </c>
+      <c r="R32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2274,13 +2345,13 @@
         <v>4</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2315,10 +2386,10 @@
         <v>2</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2353,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2388,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2426,17 +2497,17 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R37" t="str">
         <f>$N$2</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+        <v>H</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2471,14 +2542,24 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q38">
-        <f>SQRT(E28*$N$3)</f>
-        <v>1.1445413928731454</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+      <c r="Q38" s="3">
+        <f>SQRT(E28*$N$4)</f>
+        <v>0.11584472366059664</v>
+      </c>
+      <c r="R38" t="s">
+        <v>156</v>
+      </c>
+      <c r="S38" s="3">
+        <f>0.043361254529175*Q38</f>
+        <v>5.0231725485090726E-3</v>
+      </c>
+      <c r="T38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2513,14 +2594,17 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q39">
-        <f>(D28+$N$4)/2/(2^(1/6))</f>
-        <v>2.0263491344102018</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+      <c r="Q39" s="3">
+        <f>(D28+$N$3)/2/(2^(1/6))</f>
+        <v>3.1328453423405032</v>
+      </c>
+      <c r="R39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2555,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2596,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2634,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2669,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2707,17 +2791,17 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R44" t="str">
         <f>$N$2</f>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+        <v>H</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2752,14 +2836,24 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q45">
-        <f>SQRT(E35*$N$3)</f>
-        <v>1.0848179570785137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+      <c r="Q45" s="3">
+        <f>SQRT(E35*$N$4)</f>
+        <v>0.10979981785048644</v>
+      </c>
+      <c r="R45" t="s">
+        <v>156</v>
+      </c>
+      <c r="S45" s="3">
+        <f>0.043361254529175*Q45</f>
+        <v>4.761057849071995E-3</v>
+      </c>
+      <c r="T45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2794,14 +2888,17 @@
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q46">
-        <f>(D35+$N$4)/2/(2^(1/6))</f>
-        <v>1.9764588061943429</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+      <c r="Q46" s="3">
+        <f>(D35+$N$3)/2/(2^(1/6))</f>
+        <v>3.0829550141246442</v>
+      </c>
+      <c r="R46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2836,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q47">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2877,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
